--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\code\PDF_host_Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8D277AC-8367-4B13-998D-4ED8441F0259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CB96E4-9FE7-458B-AEAE-AFE29C0737EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CAF5E879-4B71-465C-AE9A-6E02743AD36F}"/>
+    <workbookView xWindow="10644" yWindow="1068" windowWidth="10476" windowHeight="8964" xr2:uid="{CAF5E879-4B71-465C-AE9A-6E02743AD36F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Customer name</t>
   </si>
@@ -50,49 +50,49 @@
     <t>First</t>
   </si>
   <si>
-    <t>#012</t>
-  </si>
-  <si>
-    <t>#001</t>
-  </si>
-  <si>
-    <t>#121</t>
-  </si>
-  <si>
     <t>Second</t>
   </si>
   <si>
-    <t>#002</t>
-  </si>
-  <si>
-    <t>#311</t>
-  </si>
-  <si>
-    <t>#312</t>
-  </si>
-  <si>
-    <t>#313</t>
-  </si>
-  <si>
-    <t>#314</t>
-  </si>
-  <si>
     <t>Third</t>
   </si>
   <si>
-    <t>#003</t>
-  </si>
-  <si>
-    <t>#340</t>
-  </si>
-  <si>
-    <t>#379</t>
-  </si>
-  <si>
-    <t>#380</t>
-  </si>
-  <si>
-    <t>#381</t>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t>P340</t>
+  </si>
+  <si>
+    <t>P012</t>
+  </si>
+  <si>
+    <t>P121</t>
+  </si>
+  <si>
+    <t>P311</t>
+  </si>
+  <si>
+    <t>P312</t>
+  </si>
+  <si>
+    <t>P313</t>
+  </si>
+  <si>
+    <t>P314</t>
+  </si>
+  <si>
+    <t>P379</t>
+  </si>
+  <si>
+    <t>P380</t>
+  </si>
+  <si>
+    <t>P381</t>
   </si>
 </sst>
 </file>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF6F9C5-40C4-4550-8AFD-F5E8012DD02B}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,7 +484,7 @@
     <col min="5" max="5" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,31 +495,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -527,81 +539,13 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
     </row>
